--- a/biology/Microbiologie/Gélose_PCB/Gélose_PCB.xlsx
+++ b/biology/Microbiologie/Gélose_PCB/Gélose_PCB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PCB</t>
+          <t>Gélose_PCB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PCB est un milieu de culture gélosé permettant de mettre en évidence des chlamydospores de Candida albicans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PCB</t>
+          <t>Gélose_PCB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>[style à revoir]
 carottes 20,0 g
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PCB</t>
+          <t>Gélose_PCB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Mise en œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Couler le milieu en petites boites. Faire une strie de la souche et recouvrir d'une lamelle stérile. Incuber à 28-30 °C
 Observer au microscope après 48 à 72 heures.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PCB</t>
+          <t>Gélose_PCB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Microbiologie technique tome1 (dictionnaire des techniques)de Jean-noël JOFFIN et Guy LEYRAL
  Portail de la microbiologie                     </t>
